--- a/teaching/traditional_assets/database/data/slovenia/slovenia_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/slovenia/slovenia_insurance_general.xlsx
@@ -591,121 +591,118 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0159</v>
+        <v>0.0338</v>
       </c>
       <c r="E2">
-        <v>-0.0209</v>
+        <v>-0.033</v>
       </c>
       <c r="G2">
-        <v>0.1024105876792185</v>
+        <v>0.09418977288560679</v>
       </c>
       <c r="H2">
-        <v>0.1024105876792185</v>
+        <v>0.09418977288560679</v>
       </c>
       <c r="I2">
-        <v>0.08681266740192216</v>
+        <v>0.07865403371882403</v>
       </c>
       <c r="J2">
-        <v>0.07074512951261612</v>
+        <v>0.06500697189820717</v>
       </c>
       <c r="K2">
         <v>88.40000000000001</v>
       </c>
       <c r="L2">
-        <v>0.0696391996218686</v>
+        <v>0.06158562073289675</v>
       </c>
       <c r="M2">
-        <v>62.045</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.07316627358490566</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.701866515837104</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>61.9</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.07299528301886793</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.7002262443438914</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1450000000000031</v>
-      </c>
-      <c r="T2">
-        <v>0.002337013457974102</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>100.9</v>
+        <v>112.3</v>
       </c>
       <c r="V2">
-        <v>0.1189858490566038</v>
+        <v>0.1347977433681431</v>
       </c>
       <c r="W2">
-        <v>0.1036828524513254</v>
+        <v>0.1048884670147129</v>
       </c>
       <c r="X2">
-        <v>0.05834647499303597</v>
+        <v>0.0507887254447397</v>
       </c>
       <c r="Y2">
-        <v>0.04533637745828939</v>
+        <v>0.05409974156997317</v>
       </c>
       <c r="Z2">
-        <v>1.762321255032625</v>
+        <v>1.740722774678632</v>
       </c>
       <c r="AA2">
-        <v>0.1246756454301193</v>
+        <v>0.1131591164961031</v>
       </c>
       <c r="AB2">
-        <v>0.05615255045754239</v>
+        <v>0.0487477462581859</v>
       </c>
       <c r="AC2">
-        <v>0.06852309497257689</v>
+        <v>0.06441137023791715</v>
       </c>
       <c r="AD2">
-        <v>82.7</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>82.7</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="AG2">
-        <v>-18.2</v>
+        <v>-43.2</v>
       </c>
       <c r="AH2">
-        <v>0.08885784893091221</v>
+        <v>0.07659055641764574</v>
       </c>
       <c r="AI2">
-        <v>0.08908757944629968</v>
+        <v>0.06521328803322009</v>
       </c>
       <c r="AJ2">
-        <v>-0.02193299590262714</v>
+        <v>-0.05469046714774022</v>
       </c>
       <c r="AK2">
-        <v>-0.02199661590524535</v>
+        <v>-0.04560329357120237</v>
       </c>
       <c r="AL2">
-        <v>2.72</v>
+        <v>3.94</v>
       </c>
       <c r="AM2">
-        <v>2.72</v>
+        <v>3.94</v>
       </c>
       <c r="AN2">
-        <v>0.6450858034321374</v>
+        <v>0.5215094339622641</v>
       </c>
       <c r="AO2">
-        <v>40.51470588235294</v>
+        <v>28.65482233502538</v>
       </c>
       <c r="AP2">
-        <v>-0.1419656786271451</v>
+        <v>-0.3260377358490566</v>
       </c>
       <c r="AQ2">
-        <v>40.51470588235294</v>
+        <v>28.65482233502538</v>
       </c>
     </row>
     <row r="3">
@@ -725,121 +722,118 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0159</v>
+        <v>0.0338</v>
       </c>
       <c r="E3">
-        <v>-0.0209</v>
+        <v>-0.033</v>
       </c>
       <c r="G3">
-        <v>0.1024105876792185</v>
+        <v>0.09418977288560679</v>
       </c>
       <c r="H3">
-        <v>0.1024105876792185</v>
+        <v>0.09418977288560679</v>
       </c>
       <c r="I3">
-        <v>0.08681266740192216</v>
+        <v>0.07865403371882403</v>
       </c>
       <c r="J3">
-        <v>0.07074512951261612</v>
+        <v>0.06500697189820717</v>
       </c>
       <c r="K3">
         <v>88.40000000000001</v>
       </c>
       <c r="L3">
-        <v>0.0696391996218686</v>
+        <v>0.06158562073289675</v>
       </c>
       <c r="M3">
-        <v>62.045</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.07316627358490566</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>0.701866515837104</v>
+        <v>-0</v>
       </c>
       <c r="P3">
-        <v>61.9</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.07299528301886793</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.7002262443438914</v>
+        <v>-0</v>
       </c>
       <c r="S3">
-        <v>0.1450000000000031</v>
-      </c>
-      <c r="T3">
-        <v>0.002337013457974102</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>100.9</v>
+        <v>112.3</v>
       </c>
       <c r="V3">
-        <v>0.1189858490566038</v>
+        <v>0.1347977433681431</v>
       </c>
       <c r="W3">
-        <v>0.1036828524513254</v>
+        <v>0.1048884670147129</v>
       </c>
       <c r="X3">
-        <v>0.05834647499303597</v>
+        <v>0.0507887254447397</v>
       </c>
       <c r="Y3">
-        <v>0.04533637745828939</v>
+        <v>0.05409974156997317</v>
       </c>
       <c r="Z3">
-        <v>1.762321255032625</v>
+        <v>1.740722774678632</v>
       </c>
       <c r="AA3">
-        <v>0.1246756454301193</v>
+        <v>0.1131591164961031</v>
       </c>
       <c r="AB3">
-        <v>0.05615255045754239</v>
+        <v>0.0487477462581859</v>
       </c>
       <c r="AC3">
-        <v>0.06852309497257689</v>
+        <v>0.06441137023791715</v>
       </c>
       <c r="AD3">
-        <v>82.7</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>82.7</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="AG3">
-        <v>-18.2</v>
+        <v>-43.2</v>
       </c>
       <c r="AH3">
-        <v>0.08885784893091221</v>
+        <v>0.07659055641764574</v>
       </c>
       <c r="AI3">
-        <v>0.08908757944629968</v>
+        <v>0.06521328803322009</v>
       </c>
       <c r="AJ3">
-        <v>-0.02193299590262714</v>
+        <v>-0.05469046714774022</v>
       </c>
       <c r="AK3">
-        <v>-0.02199661590524535</v>
+        <v>-0.04560329357120237</v>
       </c>
       <c r="AL3">
-        <v>2.72</v>
+        <v>3.94</v>
       </c>
       <c r="AM3">
-        <v>2.72</v>
+        <v>3.94</v>
       </c>
       <c r="AN3">
-        <v>0.6450858034321374</v>
+        <v>0.5215094339622641</v>
       </c>
       <c r="AO3">
-        <v>40.51470588235294</v>
+        <v>28.65482233502538</v>
       </c>
       <c r="AP3">
-        <v>-0.1419656786271451</v>
+        <v>-0.3260377358490566</v>
       </c>
       <c r="AQ3">
-        <v>40.51470588235294</v>
+        <v>28.65482233502538</v>
       </c>
     </row>
   </sheetData>
